--- a/template_script.xlsx
+++ b/template_script.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abbas\Documents\GitHub\Huawei_2G-cells-script-creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC79DC-2C5A-48B5-8A0D-66C22454A9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C679A4F-C7C5-4C20-B7A1-A09A22D34E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40F06E13-5382-42C5-A0A2-371A7D7EBEC1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Cell ID</t>
   </si>
@@ -81,12 +81,6 @@
     <t>2G</t>
   </si>
   <si>
-    <t>Kano</t>
-  </si>
-  <si>
-    <t>KNHBSC21</t>
-  </si>
-  <si>
     <t>AMR</t>
   </si>
   <si>
@@ -114,38 +108,44 @@
     <t>Timeslot</t>
   </si>
   <si>
-    <t>5230A</t>
-  </si>
-  <si>
-    <t>Nneka</t>
-  </si>
-  <si>
-    <t>NOKIA</t>
-  </si>
-  <si>
-    <t>5256B</t>
-  </si>
-  <si>
-    <t>KNHBSC8</t>
-  </si>
-  <si>
     <t>2TCHFR</t>
   </si>
   <si>
     <t>2 SDCCH</t>
   </si>
   <si>
-    <t>SK0077D</t>
+    <t>52AB</t>
+  </si>
+  <si>
+    <t>KNBSC95</t>
+  </si>
+  <si>
+    <t>KNBSC96</t>
+  </si>
+  <si>
+    <t>KNBSC97</t>
+  </si>
+  <si>
+    <t>KNBSC98</t>
+  </si>
+  <si>
+    <t>KNBSC99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2BF227-8625-41B1-A6F9-F9465A5FE32A}">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,23 +599,12 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="M2" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="11">
-        <v>44104</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
       </c>
       <c r="N2">
         <v>4</v>
@@ -624,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q2">
         <v>160</v>
@@ -635,28 +624,17 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="M3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="11">
-        <v>44104</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
       </c>
       <c r="N3">
         <v>80</v>
@@ -667,92 +645,59 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="11">
-        <v>44104</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K4" s="11"/>
       <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="11">
-        <v>44104</v>
-      </c>
+      <c r="K5" s="11"/>
       <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
         <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
       <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="11">
-        <v>44104</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K6" s="11"/>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>90</v>
@@ -761,7 +706,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6">
         <v>85</v>
@@ -1011,6 +956,7 @@
       <c r="M103" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
